--- a/pred_ohlcv/54_21/2020-01-25 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>170014.9933</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>212447.7865</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>152822.2269</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>192993.2899</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>162320.7172</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>209083.3779</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>168770.9106</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>289987.4143</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>338867.2578</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>306217.4714</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>280815.2963</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>224164.4327000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>180078.8834</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>137378.1153000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>182283.0165000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>168070.6375000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>203328.1327000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>132891.4744000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>180430.9739000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>104611.2305000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164780.3794000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1322771.7982</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1279066.6703</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1274570.9085</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1277281.8865</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3346834.484800001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3304598.791900001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3304598.791900001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3323477.055300001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3316267.218600001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3275023.766100001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3338594.613600001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3132867.7987</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-868434.9396999981</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-915706.3885999981</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-842716.582799998</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-797424.544499998</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-845185.377799998</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-845185.377799998</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-907383.493899998</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-924191.098899998</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-1018852.953499998</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-969820.0080999978</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-1009114.611199998</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-972839.1388999977</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-1034704.140799998</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1903630.093599999</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-1962015.021899999</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-2011017.116599999</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-1964676.210599999</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-1988441.576099999</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-2030845.552899999</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-2000634.234799999</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1961231.861999999</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-2004748.427699999</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1962635.422199999</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2010048.448599999</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-2010048.448599999</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-1971340.502699999</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-1926606.451299999</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1943787.902299999</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-1988751.334899999</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1988751.334899999</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-3088327.855999998</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-3128689.994299999</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-3079941.283899998</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-3110179.811399998</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-3073347.172799998</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-3150457.609199998</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-3201510.039299998</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-3145605.187699998</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-3104318.904599998</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-3085945.203899998</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-3133654.327999998</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-3398223.291899998</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-3361781.104699998</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-3208991.970099998</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-3208991.970099998</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-3230172.858099998</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-3133823.669499998</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-3183731.595299998</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-3143445.374399998</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-3105256.434999998</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-3130364.713399998</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-3189522.947699998</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-3137608.294699998</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-3106841.922099998</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-3077593.218899998</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-3122594.914299998</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-3090588.557399998</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-3146048.022899998</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-2957487.060299998</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3091111.682299999</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-2894140.709899999</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-3024067.274699999</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-2957652.876199998</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-2957652.876199998</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-2989879.871399998</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-2944278.533599998</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-2996245.783799998</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-2996245.783799998</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-2956278.347699998</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-3006841.017599999</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-2984532.422699999</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-2984532.422699999</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-3022216.524199998</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-2972404.070599998</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-3007939.246399998</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-2930675.962199998</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-2912287.693999998</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-2875874.387699998</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-2831458.907899999</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-2876461.856099999</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-2915008.114999998</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-2901439.731399999</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-2925710.789799999</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-3001908.163199998</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-3020772.845299998</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-3059263.593699998</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-2776246.976999998</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-2819580.111599998</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-2839741.160099998</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-2765815.924399998</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-2784957.267399998</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-2703141.760099998</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-3261378.016499999</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-3246998.881</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-3259125.8568</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-3208557.0492</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-3251497.3646</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-3207596.1837</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-3207596.1837</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-3273707.2167</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-3213302.8376</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-3247589.5359</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-3247589.5359</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-3291285.7289</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-3330151.066699999</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-3427512.869299999</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-3471427.8404</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-3593572.883099999</v>
       </c>
       <c r="H1344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-3552974.132199999</v>
       </c>
       <c r="H1345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-3532794.861099999</v>
       </c>
       <c r="H1346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-3572642.602799999</v>
       </c>
       <c r="H1347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-3605915.919399999</v>
       </c>
       <c r="H1348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>-3528003.928999999</v>
       </c>
       <c r="H1349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>-3571449.561899999</v>
       </c>
       <c r="H1350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>-3533392.053699999</v>
       </c>
       <c r="H1351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-3533392.053699999</v>
       </c>
       <c r="H1352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 DAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>212447.7865</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>152822.2269</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>192993.2899</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>162320.7172</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>209083.3779</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>168770.9106</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>289987.4143</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>306217.4714</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>280815.2963</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>224164.4327000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>137378.1153000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>132891.4744000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>180430.9739000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>104611.2305000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164780.3794000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1322771.7982</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1279066.6703</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3346834.484800001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3304598.791900001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3304598.791900001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3323477.055300001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3316267.218600001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3275023.766100001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3338594.613600001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3132867.7987</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-909368.0655999981</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-937382.9830999981</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-978636.2093999981</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-916470.685499998</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-868434.9396999981</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-915706.3885999981</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-842716.582799998</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-797424.544499998</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-845185.377799998</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-845185.377799998</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-907383.493899998</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-924191.098899998</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-1047246.959499998</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-996642.4889999976</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1044366.416599998</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-998061.3213999977</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-970815.0780999977</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-921995.8500999977</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-906786.3626999977</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-973212.4009999977</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-932584.4376999978</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-970361.5024999978</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-933635.9659999979</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-978601.9223999979</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-1076677.276999998</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-3073347.172799998</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-3104318.904599998</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-3130364.713399998</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-3189522.947699998</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-3137608.294699998</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-3077593.218899998</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-3122594.914299998</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-3090588.557399998</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-3146048.022899998</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-2957487.060299998</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-2904432.148999998</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-3091111.682299999</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-3049014.167799999</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-2894140.709899999</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-3114058.060499999</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-3024067.274699999</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-2957652.876199998</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-2957652.876199998</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-2989879.871399998</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-2944278.533599998</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-2996245.783799998</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-2996245.783799998</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-2956278.347699998</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-3006841.017599999</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-2963136.551599998</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-2984532.422699999</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-3022216.524199998</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-3261378.016499999</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-3246998.881</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-3259125.8568</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-3208557.0492</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-3251497.3646</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-3207596.1837</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-3207596.1837</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-3273707.2167</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-3213302.8376</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-3247589.5359</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-3247589.5359</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-3291285.7289</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-3330151.066699999</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-3427512.869299999</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-3471427.8404</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-3593572.883099999</v>
       </c>
       <c r="H1344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-3552974.132199999</v>
       </c>
       <c r="H1345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-3532794.861099999</v>
       </c>
       <c r="H1346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-3572642.602799999</v>
       </c>
       <c r="H1347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-3605915.919399999</v>
       </c>
       <c r="H1348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>-3528003.928999999</v>
       </c>
       <c r="H1349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>-3571449.561899999</v>
       </c>
       <c r="H1350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>-3533392.053699999</v>
       </c>
       <c r="H1351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-3533392.053699999</v>
       </c>
       <c r="H1352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
